--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\B&amp;W\Updated Docs\New_BW_QAB_Performer_V1-20230215T050827Z-001\BW_QAB_Performer_V1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReQuoteProcess\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>AgentID</t>
+  </si>
+  <si>
+    <t>ClassifierConfidence</t>
+  </si>
+  <si>
+    <t>Confidence threshold for Classifier</t>
   </si>
 </sst>
 </file>
@@ -624,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2967,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3015,7 +3021,17 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2973,7 +2973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReQuoteProcess\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\B&amp;W\Updated Docs\New_BW_QAB_Performer_V1-20230215T050827Z-001\BW_QAB_Performer_V1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Static part of logging message. Calling Get Transaction Data.</t>
   </si>
   <si>
-    <t>OrchestratorAssetFolder</t>
-  </si>
-  <si>
     <t>OrchestratorQueueFolder</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t>Confidence threshold for Classifier</t>
+  </si>
+  <si>
+    <t>OrchestratorAssetFolderPath</t>
   </si>
 </sst>
 </file>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -681,7 +681,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -689,11 +689,11 @@
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -710,39 +710,39 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
         <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -758,63 +758,63 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
         <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19">
         <v>9463</v>
@@ -1869,13 +1869,13 @@
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1948,48 +1948,48 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2973,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2993,7 +2993,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -3023,13 +3023,16 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\B&amp;W\Updated Docs\New_BW_QAB_Performer_V1-20230215T050827Z-001\BW_QAB_Performer_V1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReQuoteProcess\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -237,13 +237,20 @@
   </si>
   <si>
     <t>OrchestratorAssetFolderPath</t>
+  </si>
+  <si>
+    <t>workflow_data..SspStoreNote</t>
+  </si>
+  <si>
+    <t>Stored Procedure to add notes - inputs are @aBarcode barcode_type, @aComment varchar(255), @aType varchar(10), @anAgentID queue_id_type, @aRevisionNum tinyint,
+  @aPartNum tinyint, @aNoteNum tinyint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -279,6 +286,12 @@
       <name val="Noto Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -300,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -313,6 +326,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -820,7 +836,9 @@
         <v>9463</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B20" s="7"/>
+    </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1810,7 +1828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -2973,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3035,7 +3053,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -244,13 +244,46 @@
   <si>
     <t>Stored Procedure to add notes - inputs are @aBarcode barcode_type, @aComment varchar(255), @aType varchar(10), @anAgentID queue_id_type, @aRevisionNum tinyint,
   @aPartNum tinyint, @aNoteNum tinyint</t>
+  </si>
+  <si>
+    <t>SspStoreNote</t>
+  </si>
+  <si>
+    <t>SspGetCustInfo</t>
+  </si>
+  <si>
+    <t>Setid</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>SspFindAccountByEmail</t>
+  </si>
+  <si>
+    <t>SspFindAccountByPhone</t>
+  </si>
+  <si>
+    <t>SspSearchByInvoice</t>
+  </si>
+  <si>
+    <t>SspSearchByQuote</t>
+  </si>
+  <si>
+    <t>SspSearchByPO</t>
+  </si>
+  <si>
+    <t>SspValidateItemReorderNum</t>
+  </si>
+  <si>
+    <t>SspQTLoadLabelItem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -292,6 +325,18 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -330,6 +375,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -707,7 +756,9 @@
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
@@ -761,7 +812,7 @@
         <v>52</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -837,7 +888,12 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B20" s="7"/>
+      <c r="A20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2991,14 +3047,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.28515625" customWidth="1"/>
     <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
@@ -3057,8 +3113,8 @@
       <c r="A3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>71</v>
+      <c r="B3" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
@@ -3067,14 +3123,70 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>SspQTLoadLabelItem</t>
+  </si>
+  <si>
+    <t>SspQTLoadLabelItemRevisionNum</t>
   </si>
 </sst>
 </file>
@@ -695,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -895,7 +898,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3047,7 +3057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>SspQTLoadLabelItemRevisionNum</t>
+  </si>
+  <si>
+    <t>SspQTLoadReorderLabel</t>
   </si>
 </sst>
 </file>
@@ -698,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3057,8 +3060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3197,7 +3200,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>SspQTLoadReorderLabel</t>
+  </si>
+  <si>
+    <t>SspQTStoreLabelItem</t>
+  </si>
+  <si>
+    <t>SspQTStoreLabelItemRevisionNum</t>
   </si>
 </sst>
 </file>
@@ -701,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -909,7 +915,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3060,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3208,7 +3221,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReQuoteProcess\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admVishal.Jagadale\Documents\UiPath\ReQuoteProcess\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8604FD1-13D5-471F-93A0-C65CDF3A39B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -179,9 +180,6 @@
     <t>StoreNotesType</t>
   </si>
   <si>
-    <t>Perm</t>
-  </si>
-  <si>
     <t>StoreNotesRevisionNum</t>
   </si>
   <si>
@@ -289,12 +287,15 @@
   </si>
   <si>
     <t>SspQTStoreLabelItemRevisionNum</t>
+  </si>
+  <si>
+    <t>perm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -704,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -769,7 +770,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
@@ -816,12 +817,12 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -829,7 +830,7 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -837,31 +838,31 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
         <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>43</v>
@@ -869,31 +870,31 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19">
         <v>9463</v>
@@ -901,15 +902,15 @@
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -917,7 +918,7 @@
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1907,7 +1908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -3070,7 +3071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3093,7 +3094,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -3123,110 +3124,110 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admVishal.Jagadale\Documents\UiPath\ReQuoteProcess\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8604FD1-13D5-471F-93A0-C65CDF3A39B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD099B81-DCEF-4CD7-92D4-7A8E892AD35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -290,13 +290,16 @@
   </si>
   <si>
     <t>perm</t>
+  </si>
+  <si>
+    <t>RequoteRetrainFiles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -350,6 +353,12 @@
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF464E55"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -371,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -392,6 +401,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3074,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3230,7 +3240,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
